--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Target</t>
   </si>
@@ -64,30 +64,6 @@
     <t>Various emissions targets for 2030</t>
   </si>
   <si>
-    <t>Human Development</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>Stakeholder workshop</t>
   </si>
   <si>
@@ -242,6 +218,18 @@
   </si>
   <si>
     <t>Assume same value for 2050 and assume small ruminants double</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Climate change</t>
   </si>
 </sst>
 </file>
@@ -577,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,36 +578,18 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -650,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -658,35 +628,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,18 +706,18 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -788,13 +758,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -802,133 +772,133 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Target</t>
   </si>
@@ -49,12 +49,6 @@
     <t>The National Policy on Environment</t>
   </si>
   <si>
-    <t>Increase cereals production from the 3.2 million tonnes to 6.0 million tonnes by 2018</t>
-  </si>
-  <si>
-    <t>National Agriculture Investment Plan (2014-2018)</t>
-  </si>
-  <si>
     <t>Seventh National Development Plan 2017-2021</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>By 2050 double yields by means of diversification, while ensuring food security</t>
   </si>
   <si>
-    <t>By 2050, increase productivity while maintaining a low ecological footprint</t>
-  </si>
-  <si>
     <t>Modelling in GLOBIOM</t>
   </si>
   <si>
@@ -160,42 +151,12 @@
     <t>Target for 2050</t>
   </si>
   <si>
-    <t>Average crop yield (2010-2013) x 2</t>
-  </si>
-  <si>
-    <t>Average crop exports (2010-2013) x 2</t>
-  </si>
-  <si>
-    <t>Irrigated area (2002) x 3</t>
-  </si>
-  <si>
-    <t>Agricultural land x 1</t>
-  </si>
-  <si>
-    <t>Seems redundant as there is already a yield target</t>
-  </si>
-  <si>
-    <t>By 2050 have a diversified agricultural economic sector</t>
-  </si>
-  <si>
-    <t>Only includes crops modelled by GLOBIOM</t>
-  </si>
-  <si>
     <t>National Communication, INDC</t>
   </si>
   <si>
-    <t>Extrapolation of scenario</t>
-  </si>
-  <si>
-    <t>Questions on the BAU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase livestock population to 6,000,000 by 2030 </t>
   </si>
   <si>
-    <t xml:space="preserve">Need to ask stakeholders for quantified target. </t>
-  </si>
-  <si>
     <t>Related stakeholder statement</t>
   </si>
   <si>
@@ -211,15 +172,6 @@
     <t xml:space="preserve">	Double yields for maize &amp; food legumes for small-holder farms</t>
   </si>
   <si>
-    <t>Emission target</t>
-  </si>
-  <si>
-    <t>GLOBIOM only models full control irrigation. CSA expert team argued 200.000 for baseline but no source received</t>
-  </si>
-  <si>
-    <t>Assume same value for 2050 and assume small ruminants double</t>
-  </si>
-  <si>
     <t>study</t>
   </si>
   <si>
@@ -230,6 +182,24 @@
   </si>
   <si>
     <t>Climate change</t>
+  </si>
+  <si>
+    <t>Double crop yield (base year 2010-2013)</t>
+  </si>
+  <si>
+    <t>Triple irrigated area (base year 2002)</t>
+  </si>
+  <si>
+    <t>Extrapolation of INDC and NDC GHG scenarios</t>
+  </si>
+  <si>
+    <t>Cropland incease &lt; 900.000 (base year 2010-2013)</t>
+  </si>
+  <si>
+    <t>Number of cattle =  6 million, double number of small ruminants (base year 2012-2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop exports double (base year 2011-2013) </t>
   </si>
 </sst>
 </file>
@@ -567,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -580,16 +550,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -599,20 +569,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,118 +590,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -758,13 +683,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -772,133 +697,133 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -15,6 +15,7 @@
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
     <sheet name="table_2" sheetId="1" r:id="rId2"/>
     <sheet name="table_3" sheetId="3" r:id="rId3"/>
+    <sheet name="table_4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Target</t>
   </si>
@@ -34,21 +35,12 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Increasing land under irrigation to 400,000 hectares by 2030</t>
-  </si>
-  <si>
     <t>The National Long Term Vision 2030</t>
   </si>
   <si>
     <t>Sustainably intensify land use without converting additional land area into agricultural land</t>
   </si>
   <si>
-    <t>The National Policy on Environment</t>
-  </si>
-  <si>
     <t>Seventh National Development Plan 2017-2021</t>
   </si>
   <si>
@@ -64,114 +56,12 @@
     <t>By 2050 double yields by means of diversification, while ensuring food security</t>
   </si>
   <si>
-    <t>Modelling in GLOBIOM</t>
-  </si>
-  <si>
-    <t>Exogenous yield increase</t>
-  </si>
-  <si>
-    <t>Exogenous increase in irrigation efficiency</t>
-  </si>
-  <si>
-    <t>Exogenous increase in irrigated crop land</t>
-  </si>
-  <si>
-    <t>Increase/introduce protected areas</t>
-  </si>
-  <si>
-    <t>Conservation agriculture</t>
-  </si>
-  <si>
-    <t>Agroforestry</t>
-  </si>
-  <si>
-    <t>Increase irrigated area</t>
-  </si>
-  <si>
-    <t>Exogenous shift from subsistence to low-input/high-input farming systems</t>
-  </si>
-  <si>
-    <t>Increase yield</t>
-  </si>
-  <si>
-    <t>Improve post-harvest loss management</t>
-  </si>
-  <si>
-    <t>Reduce deforestation</t>
-  </si>
-  <si>
-    <t>Variety selection</t>
-  </si>
-  <si>
-    <t>Climate smart agriculture</t>
-  </si>
-  <si>
-    <t>Integrated pests and disease management</t>
-  </si>
-  <si>
-    <t>Increase fertilizer application</t>
-  </si>
-  <si>
-    <t>Drought resistent varieties</t>
-  </si>
-  <si>
-    <t>Policies/strategies</t>
-  </si>
-  <si>
-    <t>Introduce a fallow coefficient</t>
-  </si>
-  <si>
-    <t>Discuss shifting cultivation in Zambia</t>
-  </si>
-  <si>
-    <t>Change trade costs</t>
-  </si>
-  <si>
-    <t>Diversification</t>
-  </si>
-  <si>
-    <t>Bio-digesters</t>
-  </si>
-  <si>
-    <t>Introduce new technology</t>
-  </si>
-  <si>
-    <t>Finance and credit</t>
-  </si>
-  <si>
-    <t>Change input costs</t>
-  </si>
-  <si>
-    <t>Change parameters of farming system</t>
-  </si>
-  <si>
-    <t>Exogenous yield increase?</t>
-  </si>
-  <si>
     <t>Target for 2050</t>
   </si>
   <si>
-    <t>National Communication, INDC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase livestock population to 6,000,000 by 2030 </t>
   </si>
   <si>
-    <t>Related stakeholder statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-harvest losses are reduced to 5% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60% of arable land uses drought-resistant crops </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Increase the adoption of CSA practices by at least 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Double yields for maize &amp; food legumes for small-holder farms</t>
-  </si>
-  <si>
     <t>study</t>
   </si>
   <si>
@@ -184,29 +74,143 @@
     <t>Climate change</t>
   </si>
   <si>
-    <t>Double crop yield (base year 2010-2013)</t>
-  </si>
-  <si>
     <t>Triple irrigated area (base year 2002)</t>
   </si>
   <si>
-    <t>Extrapolation of INDC and NDC GHG scenarios</t>
-  </si>
-  <si>
-    <t>Cropland incease &lt; 900.000 (base year 2010-2013)</t>
-  </si>
-  <si>
-    <t>Number of cattle =  6 million, double number of small ruminants (base year 2012-2014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crop exports double (base year 2011-2013) </t>
+    <t>Double crop yield (base year 2009-2011)</t>
+  </si>
+  <si>
+    <t>Increasing land under irrigation to 400,000 ha by 2030</t>
+  </si>
+  <si>
+    <t>Extrapolation of INDC GHG scenarios</t>
+  </si>
+  <si>
+    <t>6 million cattle, double number of small ruminants (base year 2012-2014)</t>
+  </si>
+  <si>
+    <t>INDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop exports double (base year 2010) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition </t>
+  </si>
+  <si>
+    <t>CSA technology</t>
+  </si>
+  <si>
+    <t>crops included</t>
+  </si>
+  <si>
+    <t>No Till</t>
+  </si>
+  <si>
+    <t>barley, beans, corn, cotton, millet, potato, soybean, sorghum, and wheat</t>
+  </si>
+  <si>
+    <t>-8.0 to 0.70</t>
+  </si>
+  <si>
+    <t>Residue Retention</t>
+  </si>
+  <si>
+    <t>barley, beans, cassava, corn, cotton, millet, potato, soybean, sorghum, sugarcane, sunflower, sweet potato, and wheat</t>
+  </si>
+  <si>
+    <t>depends on the crop (-5% to +160%, average: +77% from BAU)</t>
+  </si>
+  <si>
+    <t>0.0 to 0.30</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>+100% from BAU</t>
+  </si>
+  <si>
+    <t>-0.15  from BAU</t>
+  </si>
+  <si>
+    <t>mitigates negative impacts from CC</t>
+  </si>
+  <si>
+    <t>no GHG mitigation</t>
+  </si>
+  <si>
+    <t>no till + residue retention + crop rotation</t>
+  </si>
+  <si>
+    <t>Conservation Agriculture</t>
+  </si>
+  <si>
+    <t>+50% from BAU</t>
+  </si>
+  <si>
+    <t>-0.011 from BAU</t>
+  </si>
+  <si>
+    <t>Post-harvest losses</t>
+  </si>
+  <si>
+    <t>beans, cassava, corn, groundnuts, potato, rice, sweet potato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see additional table </t>
+  </si>
+  <si>
+    <t>Post-harvest loss productivity table (% increase from BAU)</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          -   </t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
+    <t>depends on the crop, (26% for corn [Source: XXXX], 20% for all other crops [Source: XXXX])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agroforestry </t>
+  </si>
+  <si>
+    <t>Drought tolerant maize</t>
+  </si>
+  <si>
+    <t>productivity impact (% increase from BAU)</t>
+  </si>
+  <si>
+    <t>GHG impact (CO2eq per ha per year)</t>
+  </si>
+  <si>
+    <t>Cropland incease &lt; 900.000 ha (base year 2000-2013)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +231,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,12 +272,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,16 +601,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +623,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,73 +641,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -667,163 +718,325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
     <sheet name="table_2" sheetId="1" r:id="rId2"/>
     <sheet name="table_3" sheetId="3" r:id="rId3"/>
-    <sheet name="table_4" sheetId="4" r:id="rId4"/>
+    <sheet name="update" sheetId="5" r:id="rId4"/>
+    <sheet name="table_4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Target</t>
   </si>
@@ -92,9 +93,6 @@
     <t>INDC</t>
   </si>
   <si>
-    <t xml:space="preserve">Crop exports double (base year 2010) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Definition </t>
   </si>
   <si>
@@ -204,6 +202,9 @@
   </si>
   <si>
     <t>Cropland incease &lt; 900.000 ha (base year 2000-2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nett crop exports double (base year 2010) </t>
   </si>
 </sst>
 </file>
@@ -622,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,19 +736,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,16 +761,16 @@
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,16 +783,16 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,64 +804,64 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -891,6 +892,178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -905,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -922,7 +1095,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -939,7 +1112,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -956,7 +1129,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -973,10 +1146,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -990,7 +1163,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1007,7 +1180,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1024,7 +1197,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>2</v>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="table_3" sheetId="3" r:id="rId3"/>
     <sheet name="update" sheetId="5" r:id="rId4"/>
     <sheet name="table_4" sheetId="4" r:id="rId5"/>
+    <sheet name="table_5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Target</t>
   </si>
@@ -205,13 +206,52 @@
   </si>
   <si>
     <t xml:space="preserve">Nett crop exports double (base year 2010) </t>
+  </si>
+  <si>
+    <t>Adoption rate in 2050</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>Land saving</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>msd</t>
+  </si>
+  <si>
+    <t>dtm</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>phl</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +292,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -306,6 +354,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,9 +959,10 @@
     <col min="3" max="3" width="108.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -923,15 +978,19 @@
       <c r="E1" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>24</v>
@@ -945,15 +1004,17 @@
       <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>27</v>
@@ -967,15 +1028,17 @@
       <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -992,7 +1055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>53</v>
@@ -1007,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -1022,7 +1085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
@@ -1041,24 +1104,28 @@
       <c r="B17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1215,4 +1282,168 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(B4:D4)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(B6:D6)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(B7:D7)</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(B8:D8)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
     <sheet name="table_2" sheetId="1" r:id="rId2"/>
-    <sheet name="table_3" sheetId="3" r:id="rId3"/>
-    <sheet name="update" sheetId="5" r:id="rId4"/>
-    <sheet name="table_4" sheetId="4" r:id="rId5"/>
-    <sheet name="table_5" sheetId="6" r:id="rId6"/>
+    <sheet name="old" sheetId="3" r:id="rId3"/>
+    <sheet name="table_3" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Target</t>
   </si>
@@ -160,33 +158,6 @@
     <t xml:space="preserve">see additional table </t>
   </si>
   <si>
-    <t>Post-harvest loss productivity table (% increase from BAU)</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Groundnuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                          -   </t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Sweet Potato</t>
-  </si>
-  <si>
     <t>depends on the crop, (26% for corn [Source: XXXX], 20% for all other crops [Source: XXXX])</t>
   </si>
   <si>
@@ -208,50 +179,62 @@
     <t xml:space="preserve">Nett crop exports double (base year 2010) </t>
   </si>
   <si>
-    <t>Adoption rate in 2050</t>
-  </si>
-  <si>
-    <t>GHG</t>
-  </si>
-  <si>
-    <t>Land saving</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>CSA</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>msd</t>
-  </si>
-  <si>
-    <t>dtm</t>
-  </si>
-  <si>
-    <t>ir</t>
-  </si>
-  <si>
-    <t>phl</t>
-  </si>
-  <si>
-    <t>Production</t>
+    <t>Minimum soil disturbance</t>
+  </si>
+  <si>
+    <t>All crops</t>
+  </si>
+  <si>
+    <t>Not relevant</t>
+  </si>
+  <si>
+    <t>Adoption rate in 2050 (%)</t>
+  </si>
+  <si>
+    <t>GHG impact (% from BAU)</t>
+  </si>
+  <si>
+    <t>max +27%</t>
+  </si>
+  <si>
+    <t>-1.1%</t>
+  </si>
+  <si>
+    <t>min -8%</t>
+  </si>
+  <si>
+    <t>Beans,  cassava, chickpeas, cotton, groundnuts, rice, soya</t>
+  </si>
+  <si>
+    <t>Maize, cotton</t>
+  </si>
+  <si>
+    <t>Cotton, groundnut, maize and soya</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (17%), groundnuts (43%), rice (61%),  soya (45%)</t>
+  </si>
+  <si>
+    <t>Maize (24%), cotton (3%)</t>
+  </si>
+  <si>
+    <t>Maize (79%), cotton (42%)</t>
+  </si>
+  <si>
+    <t>Cotton (18%), groundnut (18%), maize (63%) and soya (18%)</t>
+  </si>
+  <si>
+    <t>Mitigates negative impacts from climate change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,14 +275,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,12 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +647,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,7 +745,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,10 +768,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>26</v>
@@ -876,7 +845,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -891,7 +860,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
@@ -946,501 +915,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2030</v>
-      </c>
-      <c r="D1">
-        <v>2040</v>
-      </c>
-      <c r="E1">
-        <v>2050</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(B3:D3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f>AVERAGE(B4:D4)</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f>AVERAGE(B6:D6)</f>
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f>AVERAGE(B7:D7)</f>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f>AVERAGE(B8:D8)</f>
-        <v>5.333333333333333</v>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -215,9 +215,6 @@
     <t>Maize</t>
   </si>
   <si>
-    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (17%), groundnuts (43%), rice (61%),  soya (45%)</t>
-  </si>
-  <si>
     <t>Maize (24%), cotton (3%)</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Mitigates negative impacts from climate change</t>
+  </si>
+  <si>
+    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), rice (61%),  soya (45%)</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -972,7 +972,7 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -989,7 +989,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -1006,7 +1006,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1023,7 +1023,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF2DAD-22E6-442A-BDB7-7E19534C67DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
     <sheet name="table_2" sheetId="1" r:id="rId2"/>
     <sheet name="old" sheetId="3" r:id="rId3"/>
-    <sheet name="table_3" sheetId="11" r:id="rId4"/>
+    <sheet name="old_table_2" sheetId="12" r:id="rId4"/>
+    <sheet name="table_3" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Target</t>
   </si>
@@ -197,9 +204,6 @@
     <t>max +27%</t>
   </si>
   <si>
-    <t>-1.1%</t>
-  </si>
-  <si>
     <t>min -8%</t>
   </si>
   <si>
@@ -228,12 +232,15 @@
   </si>
   <si>
     <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), rice (61%),  soya (45%)</t>
+  </si>
+  <si>
+    <t>-0.74%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -330,6 +337,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -643,11 +651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,57 +688,46 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -741,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -914,11 +911,108 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41D0C1-4DA6-49F7-A825-EADED687C5DF}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,13 +1046,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -969,10 +1063,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -986,13 +1080,13 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1003,10 +1097,10 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1020,10 +1114,10 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF2DAD-22E6-442A-BDB7-7E19534C67DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5957D7-86E8-4903-AD14-B23A94E0B302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Target</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>-0.74%</t>
+  </si>
+  <si>
+    <t>The National Policy on Environment</t>
+  </si>
+  <si>
+    <t>Sum of cropland and grassland do not increase (base year 2000-2013)</t>
+  </si>
+  <si>
+    <t>Modestly expand cropland</t>
   </si>
 </sst>
 </file>
@@ -316,6 +325,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,7 +347,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +708,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -711,23 +720,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -755,72 +775,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1011,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1105,7 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E4">

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5957D7-86E8-4903-AD14-B23A94E0B302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19E4F3-EA0B-43C4-A6D4-EE5BEECA81FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Target</t>
   </si>
@@ -69,18 +69,6 @@
     <t xml:space="preserve">Increase livestock population to 6,000,000 by 2030 </t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Climate change</t>
-  </si>
-  <si>
     <t>Triple irrigated area (base year 2002)</t>
   </si>
   <si>
@@ -244,6 +232,24 @@
   </si>
   <si>
     <t>Modestly expand cropland</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Change in production costs</t>
+  </si>
+  <si>
+    <t>Returned to the pre-FSIP levels</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>-50% reduction in production costs</t>
+  </si>
+  <si>
+    <t>Groundnut</t>
   </si>
 </sst>
 </file>
@@ -627,35 +633,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -663,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,18 +729,18 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -776,19 +801,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,16 +826,16 @@
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,16 +848,16 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,64 +869,64 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -964,18 +989,18 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1046,33 +1071,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -1080,16 +1105,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -1097,16 +1122,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1114,16 +1139,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -1131,16 +1156,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -1148,19 +1173,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19E4F3-EA0B-43C4-A6D4-EE5BEECA81FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431D02C-5F2B-4306-9F1F-F6F1211E4529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="old" sheetId="3" r:id="rId3"/>
     <sheet name="old_table_2" sheetId="12" r:id="rId4"/>
     <sheet name="table_3" sheetId="11" r:id="rId5"/>
+    <sheet name="table_4" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Target</t>
   </si>
@@ -250,6 +251,60 @@
   </si>
   <si>
     <t>Groundnut</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-LR</t>
+  </si>
+  <si>
+    <t>MIROC-ESM-CHEM</t>
+  </si>
+  <si>
+    <t>NorESM1-M</t>
+  </si>
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>Modelling group</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Met Office Hadley Centre</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japan Agency for Marine-Earth Science and Technology, Atmosphere and Ocean Research Institute (The University of Tokyo), and National Institute for Environmental Studies</t>
+  </si>
+  <si>
+    <t>Institut Pierre-Simon Laplace</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>NOAA Geophysical Fluid Dynamics Laboratory</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Norwegian Climate Centre</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
 </sst>
 </file>
@@ -635,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1191,4 +1246,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B23BE7-42F3-42F0-90F4-95190F16D15E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="158.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431D02C-5F2B-4306-9F1F-F6F1211E4529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A5C32-8F17-4701-B966-FC25E6D1484F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>Mitigates negative impacts from climate change</t>
   </si>
   <si>
-    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), rice (61%),  soya (45%)</t>
-  </si>
-  <si>
     <t>-0.74%</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Norway</t>
+  </si>
+  <si>
+    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), maize (24%), rice (61%),  soya (45%)</t>
   </si>
 </sst>
 </file>
@@ -703,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,23 +714,23 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +789,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -803,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1149,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -1186,7 +1186,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1252,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B23BE7-42F3-42F0-90F4-95190F16D15E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1264,68 +1264,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A5C32-8F17-4701-B966-FC25E6D1484F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0690CBE-29A1-49D7-B0A9-E2A4D40A2355}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="old_table_2" sheetId="12" r:id="rId4"/>
     <sheet name="table_3" sheetId="11" r:id="rId5"/>
     <sheet name="table_4" sheetId="13" r:id="rId6"/>
+    <sheet name="table_mitt" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Target</t>
   </si>
@@ -305,6 +306,18 @@
   </si>
   <si>
     <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), maize (24%), rice (61%),  soya (45%)</t>
+  </si>
+  <si>
+    <t>LUC_Ag</t>
+  </si>
+  <si>
+    <t>LUC_Crp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon taxes are applied on emissions from deforestation. Carbon taxes are also applied to the emissions from conversion of natural land to cropland or grassland in Zambia. Emissions from converting grassland to cropland are not taxed. This scenario reflects a holistic policy on LUC targeting all agricultural area. </t>
+  </si>
+  <si>
+    <t>Carbon taxes are applied on emissions from deforestation. Carbon taxes are also applied to emissions from the conversion of grassland to cropland and from natural land to cropland in Zambia. Emissions from the conversion of natural land to grassland are not taxed. This scenario reflects a targeted policy on LUC from only cropland expansion.</t>
   </si>
 </sst>
 </file>
@@ -373,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -407,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,6 +712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1111,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1331,4 +1348,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ABEF9F-EBE5-44C5-BD51-8DD9B391A100}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fig_tab_map/external/tables.xlsx
+++ b/Fig_tab_map/external/tables.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandijkm\Github\CSIP_ZMB\Fig_tab_map\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0690CBE-29A1-49D7-B0A9-E2A4D40A2355}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F58EF2-E850-4DC1-B179-31DC2DA3085F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table_1" sheetId="2" r:id="rId1"/>
+    <sheet name="table_div" sheetId="2" r:id="rId1"/>
     <sheet name="table_2" sheetId="1" r:id="rId2"/>
     <sheet name="old" sheetId="3" r:id="rId3"/>
     <sheet name="old_table_2" sheetId="12" r:id="rId4"/>
-    <sheet name="table_3" sheetId="11" r:id="rId5"/>
-    <sheet name="table_4" sheetId="13" r:id="rId6"/>
+    <sheet name="table_sum_gcm" sheetId="13" r:id="rId5"/>
+    <sheet name="table_sum_csa" sheetId="11" r:id="rId6"/>
     <sheet name="table_mitt" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>Target</t>
   </si>
@@ -197,15 +198,9 @@
     <t>min -8%</t>
   </si>
   <si>
-    <t>Beans,  cassava, chickpeas, cotton, groundnuts, rice, soya</t>
-  </si>
-  <si>
     <t>Maize, cotton</t>
   </si>
   <si>
-    <t>Cotton, groundnut, maize and soya</t>
-  </si>
-  <si>
     <t>Maize</t>
   </si>
   <si>
@@ -215,12 +210,6 @@
     <t>Maize (79%), cotton (42%)</t>
   </si>
   <si>
-    <t>Cotton (18%), groundnut (18%), maize (63%) and soya (18%)</t>
-  </si>
-  <si>
-    <t>Mitigates negative impacts from climate change</t>
-  </si>
-  <si>
     <t>-0.74%</t>
   </si>
   <si>
@@ -245,9 +234,6 @@
     <t>Soybean</t>
   </si>
   <si>
-    <t>-50% reduction in production costs</t>
-  </si>
-  <si>
     <t>Groundnut</t>
   </si>
   <si>
@@ -305,9 +291,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), maize (24%), rice (61%),  soya (45%)</t>
-  </si>
-  <si>
     <t>LUC_Ag</t>
   </si>
   <si>
@@ -318,6 +301,48 @@
   </si>
   <si>
     <t>Carbon taxes are applied on emissions from deforestation. Carbon taxes are also applied to emissions from the conversion of grassland to cropland and from natural land to cropland in Zambia. Emissions from the conversion of natural land to grassland are not taxed. This scenario reflects a targeted policy on LUC from only cropland expansion.</t>
+  </si>
+  <si>
+    <t>50% reduction in production costs</t>
+  </si>
+  <si>
+    <t>Diversification</t>
+  </si>
+  <si>
+    <t>Maize, soybean and groundnut</t>
+  </si>
+  <si>
+    <t>Crops covered</t>
+  </si>
+  <si>
+    <t>productivity/costs impact (% change from BAU)</t>
+  </si>
+  <si>
+    <t>see figure 20</t>
+  </si>
+  <si>
+    <t>Mitigates negative impacts from climate change by 50%</t>
+  </si>
+  <si>
+    <t>Beans,  cassava, chickpeas, cotton, groundnuts, rice, soybean</t>
+  </si>
+  <si>
+    <t>Cotton, groundnut, maize and soybean</t>
+  </si>
+  <si>
+    <t>Beans (40%),   cassava (17%), chickpeas (90%), cotton (60%), groundnuts (43%), maize (24%), rice (61%),  soybean (45%)</t>
+  </si>
+  <si>
+    <t>Cotton (18%), groundnut (18%), maize (63%) and soybean (18%)</t>
+  </si>
+  <si>
+    <t>Maize (costs return to pre-FSIP levels), soybean (50 reduction in costs), groundnut (50% reduction in costs)</t>
+  </si>
+  <si>
+    <t>Zambia INDC</t>
+  </si>
+  <si>
+    <t>% decrease in GHG emissions in comparison to BAU scenario</t>
   </si>
 </sst>
 </file>
@@ -400,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,9 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,7 +732,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,34 +745,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -760,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +831,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -820,10 +845,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -872,72 +897,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1125,11 +1150,96 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B23BE7-42F3-42F0-90F4-95190F16D15E}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="158.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,10 +1256,10 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>50</v>
@@ -1163,10 +1273,10 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -1180,10 +1290,10 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1197,13 +1307,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1214,10 +1324,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1231,10 +1341,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1251,7 +1361,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1260,89 +1370,21 @@
         <v>48</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B23BE7-42F3-42F0-90F4-95190F16D15E}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="158.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1354,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ABEF9F-EBE5-44C5-BD51-8DD9B391A100}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,18 +1408,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>93</v>
+      <c r="A2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
